--- a/Projects/CCBOTTLERSUS_SAND/Data/SurveyTemplateV2.xlsx
+++ b/Projects/CCBOTTLERSUS_SAND/Data/SurveyTemplateV2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2018" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2022" uniqueCount="590">
   <si>
     <t xml:space="preserve">Region</t>
   </si>
@@ -1649,6 +1649,9 @@
   </si>
   <si>
     <t xml:space="preserve">2:Is there a Sparkling Display in this outlet?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2: Is there a Sparkling Display in this outlet?</t>
   </si>
   <si>
     <t xml:space="preserve">2a. Are all core brands available? (SSD core brands must be present; Coke, Coke Zero Sugar, Diet Coke, Sprite, and Dr Pepper (where distributed) to enable a Yes.)</t>
@@ -2109,11 +2112,11 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="49.8097165991903"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="50.2388663967611"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.9878542510121"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.1052631578947"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -7663,14 +7666,14 @@
   <dimension ref="1:65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A84" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C88" activeCellId="0" sqref="C88"/>
+      <selection pane="topLeft" activeCell="C89" activeCellId="0" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="74.6599190283401"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="75.3036437246964"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -9074,10 +9077,10 @@
     </row>
     <row r="88" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>182</v>
+        <v>540</v>
       </c>
       <c r="C88" s="12" t="s">
         <v>541</v>
@@ -9090,10 +9093,10 @@
     </row>
     <row r="89" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C89" s="12" t="s">
         <v>542</v>
@@ -9104,12 +9107,12 @@
       </c>
       <c r="F89" s="10"/>
     </row>
-    <row r="90" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C90" s="12" t="s">
         <v>543</v>
@@ -9120,15 +9123,15 @@
       </c>
       <c r="F90" s="10"/>
     </row>
-    <row r="91" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>90</v>
+        <v>186</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>500</v>
+        <v>544</v>
       </c>
       <c r="D91" s="18"/>
       <c r="E91" s="10" t="s">
@@ -9136,44 +9139,44 @@
       </c>
       <c r="F91" s="10"/>
     </row>
-    <row r="92" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="C92" s="11" t="s">
-        <v>544</v>
+        <v>90</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>500</v>
       </c>
       <c r="D92" s="18"/>
       <c r="E92" s="10" t="s">
-        <v>477</v>
+        <v>459</v>
       </c>
       <c r="F92" s="10"/>
     </row>
-    <row r="93" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="C93" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="C93" s="11" t="s">
         <v>545</v>
       </c>
       <c r="D93" s="18"/>
       <c r="E93" s="10" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="F93" s="10"/>
     </row>
     <row r="94" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C94" s="12" t="s">
         <v>546</v>
@@ -9184,12 +9187,12 @@
       </c>
       <c r="F94" s="10"/>
     </row>
-    <row r="95" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C95" s="12" t="s">
         <v>547</v>
@@ -9200,12 +9203,12 @@
       </c>
       <c r="F95" s="10"/>
     </row>
-    <row r="96" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C96" s="12" t="s">
         <v>548</v>
@@ -9218,10 +9221,10 @@
     </row>
     <row r="97" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C97" s="12" t="s">
         <v>549</v>
@@ -9234,10 +9237,10 @@
     </row>
     <row r="98" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C98" s="12" t="s">
         <v>550</v>
@@ -9248,12 +9251,12 @@
       </c>
       <c r="F98" s="10"/>
     </row>
-    <row r="99" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C99" s="12" t="s">
         <v>551</v>
@@ -9264,12 +9267,12 @@
       </c>
       <c r="F99" s="10"/>
     </row>
-    <row r="100" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C100" s="12" t="s">
         <v>552</v>
@@ -9282,10 +9285,10 @@
     </row>
     <row r="101" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C101" s="12" t="s">
         <v>553</v>
@@ -9298,10 +9301,10 @@
     </row>
     <row r="102" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C102" s="12" t="s">
         <v>554</v>
@@ -9314,10 +9317,10 @@
     </row>
     <row r="103" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C103" s="12" t="s">
         <v>555</v>
@@ -9328,12 +9331,12 @@
       </c>
       <c r="F103" s="10"/>
     </row>
-    <row r="104" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C104" s="12" t="s">
         <v>556</v>
@@ -9344,12 +9347,12 @@
       </c>
       <c r="F104" s="10"/>
     </row>
-    <row r="105" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C105" s="12" t="s">
         <v>557</v>
@@ -9360,12 +9363,12 @@
       </c>
       <c r="F105" s="10"/>
     </row>
-    <row r="106" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C106" s="12" t="s">
         <v>558</v>
@@ -9376,12 +9379,12 @@
       </c>
       <c r="F106" s="10"/>
     </row>
-    <row r="107" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C107" s="12" t="s">
         <v>559</v>
@@ -9392,12 +9395,12 @@
       </c>
       <c r="F107" s="10"/>
     </row>
-    <row r="108" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C108" s="12" t="s">
         <v>560</v>
@@ -9408,12 +9411,12 @@
       </c>
       <c r="F108" s="10"/>
     </row>
-    <row r="109" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C109" s="12" t="s">
         <v>561</v>
@@ -9424,44 +9427,44 @@
       </c>
       <c r="F109" s="10"/>
     </row>
-    <row r="110" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="C110" s="11" t="s">
-        <v>544</v>
+        <v>224</v>
+      </c>
+      <c r="C110" s="12" t="s">
+        <v>562</v>
       </c>
       <c r="D110" s="18"/>
       <c r="E110" s="10" t="s">
-        <v>477</v>
+        <v>459</v>
       </c>
       <c r="F110" s="10"/>
     </row>
-    <row r="111" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="C111" s="12" t="s">
-        <v>562</v>
+        <v>226</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>545</v>
       </c>
       <c r="D111" s="18"/>
       <c r="E111" s="10" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="F111" s="10"/>
     </row>
     <row r="112" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C112" s="12" t="s">
         <v>563</v>
@@ -9474,13 +9477,13 @@
     </row>
     <row r="113" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>232</v>
+        <v>564</v>
       </c>
       <c r="D113" s="18"/>
       <c r="E113" s="10" t="s">
@@ -9488,15 +9491,15 @@
       </c>
       <c r="F113" s="10"/>
     </row>
-    <row r="114" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>564</v>
+        <v>232</v>
       </c>
       <c r="D114" s="18"/>
       <c r="E114" s="10" t="s">
@@ -9504,12 +9507,12 @@
       </c>
       <c r="F114" s="10"/>
     </row>
-    <row r="115" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C115" s="12" t="s">
         <v>565</v>
@@ -9520,12 +9523,12 @@
       </c>
       <c r="F115" s="10"/>
     </row>
-    <row r="116" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C116" s="12" t="s">
         <v>566</v>
@@ -9536,12 +9539,12 @@
       </c>
       <c r="F116" s="10"/>
     </row>
-    <row r="117" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C117" s="12" t="s">
         <v>567</v>
@@ -9552,12 +9555,12 @@
       </c>
       <c r="F117" s="10"/>
     </row>
-    <row r="118" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="5" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C118" s="12" t="s">
         <v>568</v>
@@ -9568,15 +9571,15 @@
       </c>
       <c r="F118" s="10"/>
     </row>
-    <row r="119" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>556</v>
+        <v>569</v>
       </c>
       <c r="D119" s="18"/>
       <c r="E119" s="10" t="s">
@@ -9584,15 +9587,15 @@
       </c>
       <c r="F119" s="10"/>
     </row>
-    <row r="120" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="D120" s="18"/>
       <c r="E120" s="10" t="s">
@@ -9600,12 +9603,12 @@
       </c>
       <c r="F120" s="10"/>
     </row>
-    <row r="121" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C121" s="12" t="s">
         <v>570</v>
@@ -9616,12 +9619,12 @@
       </c>
       <c r="F121" s="10"/>
     </row>
-    <row r="122" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C122" s="12" t="s">
         <v>571</v>
@@ -9632,12 +9635,12 @@
       </c>
       <c r="F122" s="10"/>
     </row>
-    <row r="123" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C123" s="12" t="s">
         <v>572</v>
@@ -9648,12 +9651,12 @@
       </c>
       <c r="F123" s="10"/>
     </row>
-    <row r="124" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C124" s="12" t="s">
         <v>573</v>
@@ -9666,10 +9669,10 @@
     </row>
     <row r="125" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C125" s="12" t="s">
         <v>574</v>
@@ -9680,12 +9683,12 @@
       </c>
       <c r="F125" s="10"/>
     </row>
-    <row r="126" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C126" s="12" t="s">
         <v>575</v>
@@ -9696,12 +9699,12 @@
       </c>
       <c r="F126" s="10"/>
     </row>
-    <row r="127" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C127" s="12" t="s">
         <v>576</v>
@@ -9712,12 +9715,12 @@
       </c>
       <c r="F127" s="10"/>
     </row>
-    <row r="128" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C128" s="12" t="s">
         <v>577</v>
@@ -9730,10 +9733,10 @@
     </row>
     <row r="129" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C129" s="12" t="s">
         <v>578</v>
@@ -9746,10 +9749,10 @@
     </row>
     <row r="130" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C130" s="12" t="s">
         <v>579</v>
@@ -9760,12 +9763,12 @@
       </c>
       <c r="F130" s="10"/>
     </row>
-    <row r="131" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C131" s="12" t="s">
         <v>580</v>
@@ -9776,12 +9779,12 @@
       </c>
       <c r="F131" s="10"/>
     </row>
-    <row r="132" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C132" s="12" t="s">
         <v>581</v>
@@ -9794,10 +9797,10 @@
     </row>
     <row r="133" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C133" s="12" t="s">
         <v>582</v>
@@ -9808,12 +9811,12 @@
       </c>
       <c r="F133" s="10"/>
     </row>
-    <row r="134" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C134" s="12" t="s">
         <v>583</v>
@@ -9824,44 +9827,44 @@
       </c>
       <c r="F134" s="10"/>
     </row>
-    <row r="135" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="C135" s="11" t="s">
-        <v>531</v>
+        <v>274</v>
+      </c>
+      <c r="C135" s="12" t="s">
+        <v>584</v>
       </c>
       <c r="D135" s="18"/>
       <c r="E135" s="10" t="s">
-        <v>477</v>
+        <v>459</v>
       </c>
       <c r="F135" s="10"/>
     </row>
-    <row r="136" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="C136" s="12" t="s">
-        <v>584</v>
+        <v>276</v>
+      </c>
+      <c r="C136" s="11" t="s">
+        <v>531</v>
       </c>
       <c r="D136" s="18"/>
       <c r="E136" s="10" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="F136" s="10"/>
     </row>
-    <row r="137" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C137" s="12" t="s">
         <v>585</v>
@@ -9874,12 +9877,12 @@
     </row>
     <row r="138" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="C138" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="C138" s="12" t="s">
         <v>586</v>
       </c>
       <c r="D138" s="18"/>
@@ -9888,14 +9891,14 @@
       </c>
       <c r="F138" s="10"/>
     </row>
-    <row r="139" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="C139" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="C139" s="14" t="s">
         <v>587</v>
       </c>
       <c r="D139" s="18"/>
@@ -9904,15 +9907,15 @@
       </c>
       <c r="F139" s="10"/>
     </row>
-    <row r="140" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="B140" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="C140" s="11" t="s">
-        <v>287</v>
+    <row r="140" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="C140" s="12" t="s">
+        <v>588</v>
       </c>
       <c r="D140" s="18"/>
       <c r="E140" s="10" t="s">
@@ -9920,15 +9923,15 @@
       </c>
       <c r="F140" s="10"/>
     </row>
-    <row r="141" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="10" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B141" s="11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D141" s="18"/>
       <c r="E141" s="10" t="s">
@@ -9936,15 +9939,15 @@
       </c>
       <c r="F141" s="10"/>
     </row>
-    <row r="142" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="10" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B142" s="11" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D142" s="18"/>
       <c r="E142" s="10" t="s">
@@ -9952,15 +9955,15 @@
       </c>
       <c r="F142" s="10"/>
     </row>
-    <row r="143" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="10" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B143" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D143" s="18"/>
       <c r="E143" s="10" t="s">
@@ -9968,15 +9971,15 @@
       </c>
       <c r="F143" s="10"/>
     </row>
-    <row r="144" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="10" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B144" s="11" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D144" s="18"/>
       <c r="E144" s="10" t="s">
@@ -9984,15 +9987,15 @@
       </c>
       <c r="F144" s="10"/>
     </row>
-    <row r="145" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="10" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B145" s="11" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D145" s="18"/>
       <c r="E145" s="10" t="s">
@@ -10000,15 +10003,15 @@
       </c>
       <c r="F145" s="10"/>
     </row>
-    <row r="146" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="10" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D146" s="18"/>
       <c r="E146" s="10" t="s">
@@ -10018,13 +10021,13 @@
     </row>
     <row r="147" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="10" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D147" s="18"/>
       <c r="E147" s="10" t="s">
@@ -10034,13 +10037,13 @@
     </row>
     <row r="148" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="10" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B148" s="11" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D148" s="18"/>
       <c r="E148" s="10" t="s">
@@ -10048,15 +10051,15 @@
       </c>
       <c r="F148" s="10"/>
     </row>
-    <row r="149" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="10" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B149" s="11" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D149" s="18"/>
       <c r="E149" s="10" t="s">
@@ -10064,15 +10067,15 @@
       </c>
       <c r="F149" s="10"/>
     </row>
-    <row r="150" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="10" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B150" s="11" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D150" s="18"/>
       <c r="E150" s="10" t="s">
@@ -10080,15 +10083,15 @@
       </c>
       <c r="F150" s="10"/>
     </row>
-    <row r="151" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="10" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B151" s="11" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C151" s="11" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D151" s="18"/>
       <c r="E151" s="10" t="s">
@@ -10096,15 +10099,15 @@
       </c>
       <c r="F151" s="10"/>
     </row>
-    <row r="152" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="10" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B152" s="11" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="C152" s="11" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="D152" s="18"/>
       <c r="E152" s="10" t="s">
@@ -10112,15 +10115,15 @@
       </c>
       <c r="F152" s="10"/>
     </row>
-    <row r="153" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B153" s="11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D153" s="18"/>
       <c r="E153" s="10" t="s">
@@ -10128,15 +10131,15 @@
       </c>
       <c r="F153" s="10"/>
     </row>
-    <row r="154" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B154" s="11" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C154" s="11" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D154" s="18"/>
       <c r="E154" s="10" t="s">
@@ -10144,15 +10147,15 @@
       </c>
       <c r="F154" s="10"/>
     </row>
-    <row r="155" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B155" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C155" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D155" s="18"/>
       <c r="E155" s="10" t="s">
@@ -10160,15 +10163,15 @@
       </c>
       <c r="F155" s="10"/>
     </row>
-    <row r="156" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="B156" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="C156" s="12" t="s">
-        <v>316</v>
+        <v>314</v>
+      </c>
+      <c r="B156" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="C156" s="11" t="s">
+        <v>293</v>
       </c>
       <c r="D156" s="18"/>
       <c r="E156" s="10" t="s">
@@ -10178,13 +10181,13 @@
     </row>
     <row r="157" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B157" s="12" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C157" s="12" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D157" s="18"/>
       <c r="E157" s="10" t="s">
@@ -10192,15 +10195,15 @@
       </c>
       <c r="F157" s="10"/>
     </row>
-    <row r="158" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="B158" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="C158" s="11" t="s">
-        <v>301</v>
+        <v>317</v>
+      </c>
+      <c r="B158" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="C158" s="12" t="s">
+        <v>318</v>
       </c>
       <c r="D158" s="18"/>
       <c r="E158" s="10" t="s">
@@ -10210,13 +10213,13 @@
     </row>
     <row r="159" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="B159" s="12" t="s">
-        <v>321</v>
-      </c>
-      <c r="C159" s="12" t="s">
-        <v>321</v>
+        <v>319</v>
+      </c>
+      <c r="B159" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="C159" s="11" t="s">
+        <v>301</v>
       </c>
       <c r="D159" s="18"/>
       <c r="E159" s="10" t="s">
@@ -10224,15 +10227,15 @@
       </c>
       <c r="F159" s="10"/>
     </row>
-    <row r="160" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="B160" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="C160" s="11" t="s">
-        <v>309</v>
+        <v>320</v>
+      </c>
+      <c r="B160" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="C160" s="12" t="s">
+        <v>321</v>
       </c>
       <c r="D160" s="18"/>
       <c r="E160" s="10" t="s">
@@ -10240,15 +10243,15 @@
       </c>
       <c r="F160" s="10"/>
     </row>
-    <row r="161" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="B161" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="C161" s="12" t="s">
-        <v>325</v>
+        <v>322</v>
+      </c>
+      <c r="B161" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="C161" s="11" t="s">
+        <v>309</v>
       </c>
       <c r="D161" s="18"/>
       <c r="E161" s="10" t="s">
@@ -10256,15 +10259,15 @@
       </c>
       <c r="F161" s="10"/>
     </row>
-    <row r="162" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="B162" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="C162" s="11" t="s">
-        <v>289</v>
+        <v>324</v>
+      </c>
+      <c r="B162" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="C162" s="12" t="s">
+        <v>325</v>
       </c>
       <c r="D162" s="18"/>
       <c r="E162" s="10" t="s">
@@ -10272,15 +10275,15 @@
       </c>
       <c r="F162" s="10"/>
     </row>
-    <row r="163" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C163" s="11" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D163" s="18"/>
       <c r="E163" s="10" t="s">
@@ -10288,15 +10291,15 @@
       </c>
       <c r="F163" s="10"/>
     </row>
-    <row r="164" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B164" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C164" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D164" s="18"/>
       <c r="E164" s="10" t="s">
@@ -10306,13 +10309,13 @@
     </row>
     <row r="165" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="B165" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="C165" s="12" t="s">
-        <v>330</v>
+        <v>328</v>
+      </c>
+      <c r="B165" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="C165" s="11" t="s">
+        <v>293</v>
       </c>
       <c r="D165" s="18"/>
       <c r="E165" s="10" t="s">
@@ -10320,15 +10323,15 @@
       </c>
       <c r="F165" s="10"/>
     </row>
-    <row r="166" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="B166" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="C166" s="11" t="s">
-        <v>297</v>
+        <v>329</v>
+      </c>
+      <c r="B166" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="C166" s="12" t="s">
+        <v>330</v>
       </c>
       <c r="D166" s="18"/>
       <c r="E166" s="10" t="s">
@@ -10336,15 +10339,15 @@
       </c>
       <c r="F166" s="10"/>
     </row>
-    <row r="167" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B167" s="11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C167" s="11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D167" s="18"/>
       <c r="E167" s="10" t="s">
@@ -10354,13 +10357,13 @@
     </row>
     <row r="168" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B168" s="11" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C168" s="11" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D168" s="18"/>
       <c r="E168" s="10" t="s">
@@ -10370,13 +10373,13 @@
     </row>
     <row r="169" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B169" s="11" t="s">
-        <v>335</v>
+        <v>301</v>
       </c>
       <c r="C169" s="11" t="s">
-        <v>335</v>
+        <v>301</v>
       </c>
       <c r="D169" s="18"/>
       <c r="E169" s="10" t="s">
@@ -10384,15 +10387,15 @@
       </c>
       <c r="F169" s="10"/>
     </row>
-    <row r="170" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="10" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B170" s="11" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C170" s="11" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D170" s="18"/>
       <c r="E170" s="10" t="s">
@@ -10400,15 +10403,15 @@
       </c>
       <c r="F170" s="10"/>
     </row>
-    <row r="171" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="B171" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="C171" s="12" t="s">
-        <v>339</v>
+        <v>336</v>
+      </c>
+      <c r="B171" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="C171" s="11" t="s">
+        <v>337</v>
       </c>
       <c r="D171" s="18"/>
       <c r="E171" s="10" t="s">
@@ -10418,13 +10421,13 @@
     </row>
     <row r="172" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="B172" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="C172" s="11" t="s">
-        <v>307</v>
+        <v>338</v>
+      </c>
+      <c r="B172" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="C172" s="12" t="s">
+        <v>339</v>
       </c>
       <c r="D172" s="18"/>
       <c r="E172" s="10" t="s">
@@ -10432,15 +10435,15 @@
       </c>
       <c r="F172" s="10"/>
     </row>
-    <row r="173" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B173" s="11" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C173" s="11" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D173" s="18"/>
       <c r="E173" s="10" t="s">
@@ -10448,15 +10451,15 @@
       </c>
       <c r="F173" s="10"/>
     </row>
-    <row r="174" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="10" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B174" s="11" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="C174" s="11" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="D174" s="18"/>
       <c r="E174" s="10" t="s">
@@ -10464,15 +10467,15 @@
       </c>
       <c r="F174" s="10"/>
     </row>
-    <row r="175" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B175" s="11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C175" s="11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D175" s="18"/>
       <c r="E175" s="10" t="s">
@@ -10480,15 +10483,15 @@
       </c>
       <c r="F175" s="10"/>
     </row>
-    <row r="176" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B176" s="11" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C176" s="11" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D176" s="18"/>
       <c r="E176" s="10" t="s">
@@ -10496,15 +10499,15 @@
       </c>
       <c r="F176" s="10"/>
     </row>
-    <row r="177" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B177" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C177" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D177" s="18"/>
       <c r="E177" s="10" t="s">
@@ -10512,15 +10515,15 @@
       </c>
       <c r="F177" s="10"/>
     </row>
-    <row r="178" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="B178" s="12" t="s">
-        <v>348</v>
-      </c>
-      <c r="C178" s="12" t="s">
-        <v>348</v>
+        <v>346</v>
+      </c>
+      <c r="B178" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="C178" s="11" t="s">
+        <v>293</v>
       </c>
       <c r="D178" s="18"/>
       <c r="E178" s="10" t="s">
@@ -10528,15 +10531,15 @@
       </c>
       <c r="F178" s="10"/>
     </row>
-    <row r="179" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="B179" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="C179" s="11" t="s">
-        <v>297</v>
+        <v>347</v>
+      </c>
+      <c r="B179" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="C179" s="12" t="s">
+        <v>348</v>
       </c>
       <c r="D179" s="18"/>
       <c r="E179" s="10" t="s">
@@ -10544,15 +10547,15 @@
       </c>
       <c r="F179" s="10"/>
     </row>
-    <row r="180" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B180" s="11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C180" s="11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D180" s="18"/>
       <c r="E180" s="10" t="s">
@@ -10562,13 +10565,13 @@
     </row>
     <row r="181" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B181" s="11" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C181" s="11" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D181" s="18"/>
       <c r="E181" s="10" t="s">
@@ -10576,15 +10579,15 @@
       </c>
       <c r="F181" s="10"/>
     </row>
-    <row r="182" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="10" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B182" s="11" t="s">
-        <v>353</v>
+        <v>301</v>
       </c>
       <c r="C182" s="11" t="s">
-        <v>353</v>
+        <v>301</v>
       </c>
       <c r="D182" s="18"/>
       <c r="E182" s="10" t="s">
@@ -10592,15 +10595,15 @@
       </c>
       <c r="F182" s="10"/>
     </row>
-    <row r="183" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="10" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B183" s="11" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C183" s="11" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D183" s="18"/>
       <c r="E183" s="10" t="s">
@@ -10608,15 +10611,15 @@
       </c>
       <c r="F183" s="10"/>
     </row>
-    <row r="184" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B184" s="11" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="C184" s="11" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="D184" s="18"/>
       <c r="E184" s="10" t="s">
@@ -10624,15 +10627,15 @@
       </c>
       <c r="F184" s="10"/>
     </row>
-    <row r="185" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B185" s="11" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C185" s="11" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D185" s="18"/>
       <c r="E185" s="10" t="s">
@@ -10640,15 +10643,15 @@
       </c>
       <c r="F185" s="10"/>
     </row>
-    <row r="186" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="10" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B186" s="11" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="C186" s="11" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="D186" s="18"/>
       <c r="E186" s="10" t="s">
@@ -10656,15 +10659,15 @@
       </c>
       <c r="F186" s="10"/>
     </row>
-    <row r="187" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B187" s="11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C187" s="11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D187" s="18"/>
       <c r="E187" s="10" t="s">
@@ -10672,15 +10675,15 @@
       </c>
       <c r="F187" s="10"/>
     </row>
-    <row r="188" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B188" s="11" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C188" s="11" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D188" s="18"/>
       <c r="E188" s="10" t="s">
@@ -10688,15 +10691,15 @@
       </c>
       <c r="F188" s="10"/>
     </row>
-    <row r="189" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="B189" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="C189" s="12" t="s">
-        <v>293</v>
+        <v>361</v>
+      </c>
+      <c r="B189" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C189" s="11" t="s">
+        <v>291</v>
       </c>
       <c r="D189" s="18"/>
       <c r="E189" s="10" t="s">
@@ -10706,13 +10709,13 @@
     </row>
     <row r="190" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B190" s="12" t="s">
-        <v>364</v>
+        <v>293</v>
       </c>
       <c r="C190" s="12" t="s">
-        <v>364</v>
+        <v>293</v>
       </c>
       <c r="D190" s="18"/>
       <c r="E190" s="10" t="s">
@@ -10720,15 +10723,15 @@
       </c>
       <c r="F190" s="10"/>
     </row>
-    <row r="191" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="B191" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="C191" s="11" t="s">
-        <v>297</v>
+        <v>363</v>
+      </c>
+      <c r="B191" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="C191" s="12" t="s">
+        <v>364</v>
       </c>
       <c r="D191" s="18"/>
       <c r="E191" s="10" t="s">
@@ -10736,15 +10739,15 @@
       </c>
       <c r="F191" s="10"/>
     </row>
-    <row r="192" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B192" s="11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C192" s="11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D192" s="18"/>
       <c r="E192" s="10" t="s">
@@ -10754,13 +10757,13 @@
     </row>
     <row r="193" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B193" s="11" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C193" s="11" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D193" s="18"/>
       <c r="E193" s="10" t="s">
@@ -10768,15 +10771,15 @@
       </c>
       <c r="F193" s="10"/>
     </row>
-    <row r="194" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B194" s="11" t="s">
-        <v>369</v>
+        <v>301</v>
       </c>
       <c r="C194" s="11" t="s">
-        <v>369</v>
+        <v>301</v>
       </c>
       <c r="D194" s="18"/>
       <c r="E194" s="10" t="s">
@@ -10784,15 +10787,15 @@
       </c>
       <c r="F194" s="10"/>
     </row>
-    <row r="195" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="B195" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="C195" s="13" t="s">
-        <v>355</v>
+        <v>368</v>
+      </c>
+      <c r="B195" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="C195" s="11" t="s">
+        <v>369</v>
       </c>
       <c r="D195" s="18"/>
       <c r="E195" s="10" t="s">
@@ -10800,15 +10803,15 @@
       </c>
       <c r="F195" s="10"/>
     </row>
-    <row r="196" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="10" t="s">
-        <v>371</v>
-      </c>
-      <c r="B196" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="C196" s="11" t="s">
-        <v>307</v>
+        <v>370</v>
+      </c>
+      <c r="B196" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="C196" s="13" t="s">
+        <v>355</v>
       </c>
       <c r="D196" s="18"/>
       <c r="E196" s="10" t="s">
@@ -10816,15 +10819,15 @@
       </c>
       <c r="F196" s="10"/>
     </row>
-    <row r="197" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B197" s="11" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C197" s="11" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D197" s="18"/>
       <c r="E197" s="10" t="s">
@@ -10832,15 +10835,15 @@
       </c>
       <c r="F197" s="10"/>
     </row>
-    <row r="198" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="10" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B198" s="11" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="C198" s="11" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="D198" s="18"/>
       <c r="E198" s="10" t="s">
@@ -10848,15 +10851,15 @@
       </c>
       <c r="F198" s="10"/>
     </row>
-    <row r="199" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B199" s="11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C199" s="11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D199" s="18"/>
       <c r="E199" s="10" t="s">
@@ -10864,15 +10867,15 @@
       </c>
       <c r="F199" s="10"/>
     </row>
-    <row r="200" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B200" s="11" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C200" s="11" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D200" s="18"/>
       <c r="E200" s="10" t="s">
@@ -10880,15 +10883,15 @@
       </c>
       <c r="F200" s="10"/>
     </row>
-    <row r="201" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B201" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C201" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D201" s="18"/>
       <c r="E201" s="10" t="s">
@@ -10896,15 +10899,15 @@
       </c>
       <c r="F201" s="10"/>
     </row>
-    <row r="202" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="B202" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="C202" s="13" t="s">
-        <v>348</v>
+        <v>377</v>
+      </c>
+      <c r="B202" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="C202" s="11" t="s">
+        <v>293</v>
       </c>
       <c r="D202" s="18"/>
       <c r="E202" s="10" t="s">
@@ -10912,15 +10915,15 @@
       </c>
       <c r="F202" s="10"/>
     </row>
-    <row r="203" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="B203" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="C203" s="11" t="s">
-        <v>297</v>
+        <v>378</v>
+      </c>
+      <c r="B203" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="C203" s="13" t="s">
+        <v>348</v>
       </c>
       <c r="D203" s="18"/>
       <c r="E203" s="10" t="s">
@@ -10928,15 +10931,15 @@
       </c>
       <c r="F203" s="10"/>
     </row>
-    <row r="204" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B204" s="11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C204" s="11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D204" s="18"/>
       <c r="E204" s="10" t="s">
@@ -10946,13 +10949,13 @@
     </row>
     <row r="205" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B205" s="11" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C205" s="11" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D205" s="18"/>
       <c r="E205" s="10" t="s">
@@ -10962,13 +10965,13 @@
     </row>
     <row r="206" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B206" s="11" t="s">
-        <v>335</v>
+        <v>301</v>
       </c>
       <c r="C206" s="11" t="s">
-        <v>335</v>
+        <v>301</v>
       </c>
       <c r="D206" s="18"/>
       <c r="E206" s="10" t="s">
@@ -10976,15 +10979,15 @@
       </c>
       <c r="F206" s="10"/>
     </row>
-    <row r="207" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B207" s="11" t="s">
-        <v>384</v>
+        <v>335</v>
       </c>
       <c r="C207" s="11" t="s">
-        <v>384</v>
+        <v>335</v>
       </c>
       <c r="D207" s="18"/>
       <c r="E207" s="10" t="s">
@@ -10992,15 +10995,15 @@
       </c>
       <c r="F207" s="10"/>
     </row>
-    <row r="208" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="10" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B208" s="11" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C208" s="11" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D208" s="18"/>
       <c r="E208" s="10" t="s">
@@ -11010,13 +11013,13 @@
     </row>
     <row r="209" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="10" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B209" s="11" t="s">
-        <v>309</v>
+        <v>386</v>
       </c>
       <c r="C209" s="11" t="s">
-        <v>309</v>
+        <v>386</v>
       </c>
       <c r="D209" s="18"/>
       <c r="E209" s="10" t="s">
@@ -11024,15 +11027,15 @@
       </c>
       <c r="F209" s="10"/>
     </row>
-    <row r="210" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="10" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B210" s="11" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="C210" s="11" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="D210" s="18"/>
       <c r="E210" s="10" t="s">
@@ -11040,15 +11043,15 @@
       </c>
       <c r="F210" s="10"/>
     </row>
-    <row r="211" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B211" s="11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C211" s="11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D211" s="18"/>
       <c r="E211" s="10" t="s">
@@ -11056,15 +11059,15 @@
       </c>
       <c r="F211" s="10"/>
     </row>
-    <row r="212" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B212" s="11" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C212" s="11" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D212" s="18"/>
       <c r="E212" s="10" t="s">
@@ -11072,15 +11075,15 @@
       </c>
       <c r="F212" s="10"/>
     </row>
-    <row r="213" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B213" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C213" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D213" s="18"/>
       <c r="E213" s="10" t="s">
@@ -11088,15 +11091,15 @@
       </c>
       <c r="F213" s="10"/>
     </row>
-    <row r="214" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="B214" s="12" t="s">
-        <v>394</v>
-      </c>
-      <c r="C214" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
+      </c>
+      <c r="B214" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="C214" s="11" t="s">
+        <v>293</v>
       </c>
       <c r="D214" s="18"/>
       <c r="E214" s="10" t="s">
@@ -11104,15 +11107,15 @@
       </c>
       <c r="F214" s="10"/>
     </row>
-    <row r="215" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="B215" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="C215" s="11" t="s">
-        <v>297</v>
+        <v>393</v>
+      </c>
+      <c r="B215" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="C215" s="12" t="s">
+        <v>394</v>
       </c>
       <c r="D215" s="18"/>
       <c r="E215" s="10" t="s">
@@ -11120,15 +11123,15 @@
       </c>
       <c r="F215" s="10"/>
     </row>
-    <row r="216" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B216" s="11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C216" s="11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D216" s="18"/>
       <c r="E216" s="10" t="s">
@@ -11138,13 +11141,13 @@
     </row>
     <row r="217" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B217" s="11" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C217" s="11" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D217" s="18"/>
       <c r="E217" s="10" t="s">
@@ -11154,13 +11157,13 @@
     </row>
     <row r="218" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="10" t="s">
-        <v>398</v>
-      </c>
-      <c r="B218" s="12" t="s">
-        <v>399</v>
-      </c>
-      <c r="C218" s="12" t="s">
-        <v>399</v>
+        <v>397</v>
+      </c>
+      <c r="B218" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="C218" s="11" t="s">
+        <v>301</v>
       </c>
       <c r="D218" s="18"/>
       <c r="E218" s="10" t="s">
@@ -11168,15 +11171,15 @@
       </c>
       <c r="F218" s="10"/>
     </row>
-    <row r="219" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="10" t="s">
-        <v>400</v>
-      </c>
-      <c r="B219" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="C219" s="11" t="s">
-        <v>401</v>
+        <v>398</v>
+      </c>
+      <c r="B219" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="C219" s="12" t="s">
+        <v>399</v>
       </c>
       <c r="D219" s="18"/>
       <c r="E219" s="10" t="s">
@@ -11184,15 +11187,15 @@
       </c>
       <c r="F219" s="10"/>
     </row>
-    <row r="220" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="10" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B220" s="11" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C220" s="11" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D220" s="18"/>
       <c r="E220" s="10" t="s">
@@ -11200,15 +11203,15 @@
       </c>
       <c r="F220" s="10"/>
     </row>
-    <row r="221" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="10" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B221" s="11" t="s">
-        <v>309</v>
+        <v>403</v>
       </c>
       <c r="C221" s="11" t="s">
-        <v>309</v>
+        <v>403</v>
       </c>
       <c r="D221" s="18"/>
       <c r="E221" s="10" t="s">
@@ -11216,15 +11219,15 @@
       </c>
       <c r="F221" s="10"/>
     </row>
-    <row r="222" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B222" s="11" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="C222" s="11" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="D222" s="18"/>
       <c r="E222" s="10" t="s">
@@ -11232,15 +11235,15 @@
       </c>
       <c r="F222" s="10"/>
     </row>
-    <row r="223" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B223" s="11" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C223" s="11" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D223" s="18"/>
       <c r="E223" s="10" t="s">
@@ -11248,15 +11251,15 @@
       </c>
       <c r="F223" s="10"/>
     </row>
-    <row r="224" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B224" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C224" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D224" s="18"/>
       <c r="E224" s="10" t="s">
@@ -11264,15 +11267,15 @@
       </c>
       <c r="F224" s="10"/>
     </row>
-    <row r="225" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="10" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B225" s="11" t="s">
-        <v>410</v>
+        <v>293</v>
       </c>
       <c r="C225" s="11" t="s">
-        <v>410</v>
+        <v>293</v>
       </c>
       <c r="D225" s="18"/>
       <c r="E225" s="10" t="s">
@@ -11280,15 +11283,15 @@
       </c>
       <c r="F225" s="10"/>
     </row>
-    <row r="226" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="10" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B226" s="11" t="s">
-        <v>297</v>
+        <v>410</v>
       </c>
       <c r="C226" s="11" t="s">
-        <v>297</v>
+        <v>410</v>
       </c>
       <c r="D226" s="18"/>
       <c r="E226" s="10" t="s">
@@ -11296,15 +11299,15 @@
       </c>
       <c r="F226" s="10"/>
     </row>
-    <row r="227" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B227" s="11" t="s">
-        <v>413</v>
+        <v>297</v>
       </c>
       <c r="C227" s="11" t="s">
-        <v>413</v>
+        <v>297</v>
       </c>
       <c r="D227" s="18"/>
       <c r="E227" s="10" t="s">
@@ -11312,15 +11315,15 @@
       </c>
       <c r="F227" s="10"/>
     </row>
-    <row r="228" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="10" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B228" s="11" t="s">
-        <v>309</v>
+        <v>413</v>
       </c>
       <c r="C228" s="11" t="s">
-        <v>309</v>
+        <v>413</v>
       </c>
       <c r="D228" s="18"/>
       <c r="E228" s="10" t="s">
@@ -11328,15 +11331,15 @@
       </c>
       <c r="F228" s="10"/>
     </row>
-    <row r="229" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="10" t="s">
-        <v>416</v>
-      </c>
-      <c r="B229" s="14" t="s">
-        <v>417</v>
-      </c>
-      <c r="C229" s="14" t="s">
-        <v>417</v>
+        <v>414</v>
+      </c>
+      <c r="B229" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="C229" s="11" t="s">
+        <v>309</v>
       </c>
       <c r="D229" s="18"/>
       <c r="E229" s="10" t="s">
@@ -11344,15 +11347,15 @@
       </c>
       <c r="F229" s="10"/>
     </row>
-    <row r="230" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B230" s="14" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C230" s="14" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D230" s="18"/>
       <c r="E230" s="10" t="s">
@@ -11360,15 +11363,15 @@
       </c>
       <c r="F230" s="10"/>
     </row>
-    <row r="231" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="10" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B231" s="14" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C231" s="14" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D231" s="18"/>
       <c r="E231" s="10" t="s">
@@ -11378,13 +11381,13 @@
     </row>
     <row r="232" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B232" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C232" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D232" s="18"/>
       <c r="E232" s="10" t="s">
@@ -11392,15 +11395,15 @@
       </c>
       <c r="F232" s="10"/>
     </row>
-    <row r="233" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="B233" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="C233" s="6" t="s">
-        <v>425</v>
+    <row r="233" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="B233" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="C233" s="14" t="s">
+        <v>423</v>
       </c>
       <c r="D233" s="18"/>
       <c r="E233" s="10" t="s">
@@ -11408,15 +11411,15 @@
       </c>
       <c r="F233" s="10"/>
     </row>
-    <row r="234" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="10" t="s">
-        <v>426</v>
-      </c>
-      <c r="B234" s="14" t="s">
-        <v>427</v>
-      </c>
-      <c r="C234" s="14" t="s">
-        <v>427</v>
+    <row r="234" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="B234" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="C234" s="6" t="s">
+        <v>425</v>
       </c>
       <c r="D234" s="18"/>
       <c r="E234" s="10" t="s">
@@ -11424,15 +11427,15 @@
       </c>
       <c r="F234" s="10"/>
     </row>
-    <row r="235" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="10" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B235" s="14" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C235" s="14" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D235" s="18"/>
       <c r="E235" s="10" t="s">
@@ -11440,15 +11443,15 @@
       </c>
       <c r="F235" s="10"/>
     </row>
-    <row r="236" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="10" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B236" s="14" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C236" s="14" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D236" s="18"/>
       <c r="E236" s="10" t="s">
@@ -11456,15 +11459,15 @@
       </c>
       <c r="F236" s="10"/>
     </row>
-    <row r="237" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="10" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B237" s="14" t="s">
-        <v>588</v>
+        <v>431</v>
       </c>
       <c r="C237" s="14" t="s">
-        <v>588</v>
+        <v>431</v>
       </c>
       <c r="D237" s="18"/>
       <c r="E237" s="10" t="s">
@@ -11472,15 +11475,15 @@
       </c>
       <c r="F237" s="10"/>
     </row>
-    <row r="238" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="10" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B238" s="14" t="s">
-        <v>435</v>
+        <v>589</v>
       </c>
       <c r="C238" s="14" t="s">
-        <v>435</v>
+        <v>589</v>
       </c>
       <c r="D238" s="18"/>
       <c r="E238" s="10" t="s">
@@ -11488,15 +11491,15 @@
       </c>
       <c r="F238" s="10"/>
     </row>
-    <row r="239" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="10" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B239" s="14" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C239" s="14" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D239" s="18"/>
       <c r="E239" s="10" t="s">
@@ -11504,34 +11507,39 @@
       </c>
       <c r="F239" s="10"/>
     </row>
-    <row r="240" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="13" t="s">
+    <row r="240" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="B240" s="14" t="s">
+        <v>437</v>
+      </c>
+      <c r="C240" s="14" t="s">
+        <v>437</v>
+      </c>
+      <c r="D240" s="18"/>
+      <c r="E240" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="F240" s="10"/>
+    </row>
+    <row r="241" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="13" t="s">
         <v>439</v>
       </c>
-      <c r="C240" s="13" t="s">
+      <c r="C241" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="E240" s="10" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="241" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="13" t="s">
+      <c r="E241" s="10" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="13" t="s">
         <v>440</v>
       </c>
-      <c r="C241" s="13" t="s">
+      <c r="C242" s="13" t="s">
         <v>289</v>
-      </c>
-      <c r="E241" s="10" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="242" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="13" t="s">
-        <v>441</v>
-      </c>
-      <c r="C242" s="13" t="s">
-        <v>291</v>
       </c>
       <c r="E242" s="10" t="s">
         <v>459</v>
@@ -11539,32 +11547,32 @@
     </row>
     <row r="243" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="C243" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="E243" s="10" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="13" t="s">
         <v>442</v>
       </c>
-      <c r="C243" s="13" t="s">
+      <c r="C244" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="E243" s="10" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="244" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="13" t="s">
+      <c r="E244" s="10" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="13" t="s">
         <v>443</v>
       </c>
-      <c r="C244" s="13" t="s">
+      <c r="C245" s="13" t="s">
         <v>444</v>
-      </c>
-      <c r="E244" s="10" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="245" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="13" t="s">
-        <v>445</v>
-      </c>
-      <c r="C245" s="13" t="s">
-        <v>297</v>
       </c>
       <c r="E245" s="10" t="s">
         <v>459</v>
@@ -11572,10 +11580,10 @@
     </row>
     <row r="246" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="13" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C246" s="13" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E246" s="10" t="s">
         <v>459</v>
@@ -11583,10 +11591,10 @@
     </row>
     <row r="247" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C247" s="13" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E247" s="10" t="s">
         <v>459</v>
@@ -11594,49 +11602,59 @@
     </row>
     <row r="248" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="13" t="s">
+        <v>447</v>
+      </c>
+      <c r="C248" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="E248" s="10" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="13" t="s">
         <v>448</v>
       </c>
-      <c r="C248" s="13" t="s">
+      <c r="C249" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="E248" s="10" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="249" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="13" t="s">
+      <c r="E249" s="10" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="13" t="s">
         <v>449</v>
       </c>
-      <c r="C249" s="13" t="s">
+      <c r="C250" s="13" t="s">
         <v>450</v>
       </c>
-      <c r="E249" s="10" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="250" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="13" t="s">
+      <c r="E250" s="10" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="13" t="s">
         <v>451</v>
       </c>
-      <c r="C250" s="13" t="s">
+      <c r="C251" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="E250" s="10" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="251" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="13" t="s">
+      <c r="E251" s="10" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="13" t="s">
         <v>452</v>
       </c>
-      <c r="C251" s="13" t="s">
+      <c r="C252" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="E251" s="10" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="E252" s="10" t="s">
+        <v>459</v>
+      </c>
+    </row>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
